--- a/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>HIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,219 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>83800</v>
+      </c>
+      <c r="F8" s="3">
         <v>95700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>98300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>98700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>100700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>101900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>112100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>113900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>119000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>123200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>125400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>116100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>51300</v>
+      </c>
+      <c r="F9" s="3">
         <v>64100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>67000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>67200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>71000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>68800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>78900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>77600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>85700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>85900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>86800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>78500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>32500</v>
+      </c>
+      <c r="F10" s="3">
         <v>31600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>31300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>31500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>29700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>33100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>33200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>36300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>33300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>37300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>38600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>37600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,13 +983,19 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -974,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>7900</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -991,8 +1030,14 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>73700</v>
+      </c>
+      <c r="F17" s="3">
         <v>92600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>93700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>98100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>105200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>109600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>115700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>119100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>120700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>124800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>126800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>112000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>142700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F18" s="3">
         <v>3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>4100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,20 +1210,22 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1186,54 +1253,66 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F21" s="3">
         <v>4500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>5400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-6700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>5700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-15900</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="3">
         <v>1400</v>
@@ -1242,116 +1321,134 @@
         <v>1500</v>
       </c>
       <c r="G22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
-        <v>1300</v>
-      </c>
       <c r="I22" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="J22" s="3">
         <v>1300</v>
       </c>
       <c r="K22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F23" s="3">
         <v>2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-8900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>3500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F26" s="3">
         <v>2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-8500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-6100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F27" s="3">
         <v>2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-8500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-7100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-6100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,13 +1629,19 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1535,28 +1656,34 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-3800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-2600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>44900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-4300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,20 +1770,26 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1678,49 +1817,61 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F33" s="3">
         <v>2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-8500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-7500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>43900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F35" s="3">
         <v>2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-8500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-7500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>43900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F41" s="3">
         <v>17400</v>
-      </c>
-      <c r="E41" s="3">
-        <v>18700</v>
-      </c>
-      <c r="F41" s="3">
-        <v>25700</v>
       </c>
       <c r="G41" s="3">
         <v>18700</v>
       </c>
       <c r="H41" s="3">
+        <v>25700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>18700</v>
+      </c>
+      <c r="J41" s="3">
         <v>23100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>22600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>17800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>21400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>14900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>16700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>20400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,49 +2142,61 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>151200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>141400</v>
+      </c>
+      <c r="F43" s="3">
         <v>151600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>152000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>149900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>155900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>163400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>167600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>159900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>163600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>167000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>173800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>177500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,213 +2236,249 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F45" s="3">
         <v>12700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>10600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>12500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>11100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>13100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>13500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>12200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>12200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>64700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>182700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>171300</v>
+      </c>
+      <c r="F46" s="3">
         <v>181700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>181300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>183000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>183100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>199000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>201300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>190800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>198400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>194100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>202800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>262600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F47" s="3">
         <v>11100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>10000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>10200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>8900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>9600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>13400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>17100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>16700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>14200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>22600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>22200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F48" s="3">
         <v>27000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>27100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>27800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>10800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>11500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>11900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>12100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>12000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>13900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>14900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>15700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>48300</v>
+      </c>
+      <c r="F49" s="3">
         <v>48000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>49800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>49500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>50200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>50800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>52400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>56600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>56600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>57600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>56900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>56900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2565,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F52" s="3">
         <v>11200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>12600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>12700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>11800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>11300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>10200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>8900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>10200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>10400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>40400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>271600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>269600</v>
+      </c>
+      <c r="F54" s="3">
         <v>279000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>280800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>283200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>264800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>282200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>289200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>285500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>293300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>290100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>307500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>397900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>400100</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,254 +2748,292 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>22100</v>
+      </c>
+      <c r="F57" s="3">
         <v>26500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>24600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>33500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>30000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>31500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>29300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>26900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>32300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>29000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>28000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>29800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>67600</v>
+      </c>
+      <c r="F59" s="3">
         <v>76400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>85300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>83000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>75700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>79600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>87000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>85500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>90300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>80200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>84300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>100700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>91500</v>
+      </c>
+      <c r="F60" s="3">
         <v>106200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>113000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>120300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>109000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>114100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>120000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>115200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>125900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>111900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>116900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>135000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>41200</v>
+      </c>
+      <c r="F61" s="3">
         <v>48700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>48400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>45100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>44600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>44800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>42100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>37400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>34500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>31400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>32400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>150800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>142100</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>26700</v>
+      </c>
+      <c r="F62" s="3">
         <v>26200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>25100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>27100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>16700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>23300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>20200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>28000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>22200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>27700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>38200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>39000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>169200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>160200</v>
+      </c>
+      <c r="F66" s="3">
         <v>181900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>187200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>193100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>170900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>182900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>182900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>181000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>184200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>173500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>189500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>327000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-71400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-83500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-86000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-87600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-85400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-78200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-69600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-62100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-54000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-44100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-39800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-83700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>102400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>109400</v>
+      </c>
+      <c r="F76" s="3">
         <v>97000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>93500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>90100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>93800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>99300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>106400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>104500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>109100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>116600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>118000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>71000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F81" s="3">
         <v>2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-8500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-7500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>43900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3825,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-7000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>8500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-11800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-9900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-6000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-16100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +4173,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-400</v>
-      </c>
       <c r="M91" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-400</v>
       </c>
       <c r="O91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>128000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4564,151 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>14400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-128000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>10700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>900</v>
+      </c>
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>4300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-4700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>7500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-7300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>4100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>5400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-5200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>HIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,132 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>94400</v>
+      </c>
+      <c r="E8" s="3">
         <v>93300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>83800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>95700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>98300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>98700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>101900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>112100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>113900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>119000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>123200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>125400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>116100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -791,93 +798,99 @@
         <v>65000</v>
       </c>
       <c r="E9" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F9" s="3">
         <v>51300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>64100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>67000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>67200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>71000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>68800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>78900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>77600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>85700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>85900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>86800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>78500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E10" s="3">
         <v>28300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>32500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>31600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>29700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>37300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>37600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,16 +1006,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1019,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>7900</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>91100</v>
+      </c>
+      <c r="E17" s="3">
         <v>97200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>73700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>92600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>93700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>98100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>105200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>109600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>115700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>119100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>120700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>124800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>126800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>112000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>142700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,23 +1245,24 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1259,55 +1293,61 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-15900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1315,140 +1355,149 @@
         <v>1300</v>
       </c>
       <c r="E22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1500</v>
       </c>
       <c r="I22" s="3">
         <v>1500</v>
       </c>
       <c r="J22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1000</v>
       </c>
       <c r="N22" s="3">
         <v>1000</v>
       </c>
       <c r="O22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,16 +1693,19 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1662,28 +1723,31 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-3800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-2600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>44900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,23 +1843,26 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1823,55 +1893,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>43900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>43900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E41" s="3">
         <v>16100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>25700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2238,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>147300</v>
+      </c>
+      <c r="E43" s="3">
         <v>151200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>141400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>151600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>152000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>149900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>155900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>163400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>167600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>159900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>163600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>167000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>173800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>177500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,102 +2338,111 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E45" s="3">
         <v>15400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13500</v>
-      </c>
-      <c r="N45" s="3">
-        <v>12200</v>
       </c>
       <c r="O45" s="3">
         <v>12200</v>
       </c>
       <c r="P45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>64700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>187600</v>
+      </c>
+      <c r="E46" s="3">
         <v>182700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>171300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>181700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>181300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>183000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>183100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>199000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>201300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>190800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>198400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>194100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>202800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>262600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2345,140 +2450,149 @@
         <v>8100</v>
       </c>
       <c r="E47" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F47" s="3">
         <v>7400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>17100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>14200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>22600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>22200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E48" s="3">
         <v>25900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E49" s="3">
         <v>44800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>48300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>48000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>49800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>49500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>50200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>50800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>52400</v>
-      </c>
-      <c r="L49" s="3">
-        <v>56600</v>
       </c>
       <c r="M49" s="3">
         <v>56600</v>
       </c>
       <c r="N49" s="3">
+        <v>56600</v>
+      </c>
+      <c r="O49" s="3">
         <v>57600</v>
-      </c>
-      <c r="O49" s="3">
-        <v>56900</v>
       </c>
       <c r="P49" s="3">
         <v>56900</v>
       </c>
       <c r="Q49" s="3">
+        <v>56900</v>
+      </c>
+      <c r="R49" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E52" s="3">
         <v>10100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>40400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>274900</v>
+      </c>
+      <c r="E54" s="3">
         <v>271600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>269600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>279000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>280800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>283200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>264800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>282200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>289200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>285500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>293300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>290100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>307500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>397900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E57" s="3">
         <v>25700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>26500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>31500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>26900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>29000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>28000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>4500</v>
       </c>
       <c r="P58" s="3">
         <v>4500</v>
       </c>
       <c r="Q58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="R58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E59" s="3">
         <v>65000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>67600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>76400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>85300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>83000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>75700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>79600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>87000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>85500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>90300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>80200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>84300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E60" s="3">
         <v>93700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>91500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>106200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>113000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>120300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>109000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>114100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>120000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>115200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>125900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>111900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>116900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>135000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E61" s="3">
         <v>50500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>41200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>48700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>48400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>45100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>44600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>44800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>42100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>34500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>32400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>150800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>142100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E62" s="3">
         <v>24200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>26700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>26200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>27100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>27700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>38200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>39000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>168400</v>
+      </c>
+      <c r="E66" s="3">
         <v>169200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>160200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>181900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>187200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>193100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>170900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>182900</v>
       </c>
       <c r="K66" s="3">
         <v>182900</v>
       </c>
       <c r="L66" s="3">
+        <v>182900</v>
+      </c>
+      <c r="M66" s="3">
         <v>181000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>184200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>173500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>189500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>327000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-77900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-71400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-83500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-86000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-87600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-85400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-78200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-62100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-54000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-44100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-39800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-83700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>106500</v>
+      </c>
+      <c r="E76" s="3">
         <v>102400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>109400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>97000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>93500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>90100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>93800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>99300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>106400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>104500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>109100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>116600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>118000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>71000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>43900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>2400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>800</v>
       </c>
       <c r="H83" s="3">
         <v>800</v>
       </c>
       <c r="I83" s="3">
+        <v>800</v>
+      </c>
+      <c r="J83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1000</v>
       </c>
       <c r="L91" s="3">
         <v>-1000</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>128000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E100" s="3">
         <v>10800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-128000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>10700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>HIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E8" s="3">
         <v>94400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>93300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>83800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>95700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>98300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>98700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>101900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>112100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>113900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>119000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>123200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>125400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>116100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="E9" s="3">
         <v>65000</v>
       </c>
       <c r="F9" s="3">
+        <v>65000</v>
+      </c>
+      <c r="G9" s="3">
         <v>51300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>64100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>67000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>67200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>71000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>68800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>78900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>77600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>85700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>85900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>86800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>78500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E10" s="3">
         <v>29400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>28300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>32500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>29700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>36300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>37300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>37600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,8 +1040,8 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1042,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>7900</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E17" s="3">
         <v>91100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>97200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>73700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>92600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>93700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>98100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>105200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>109600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>115700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>119100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>120700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>124800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>126800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>112000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>142700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E18" s="3">
         <v>3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,26 +1279,27 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1296,58 +1330,64 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-15900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1358,146 +1398,155 @@
         <v>1300</v>
       </c>
       <c r="F22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1500</v>
       </c>
       <c r="J22" s="3">
         <v>1500</v>
       </c>
       <c r="K22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1000</v>
       </c>
       <c r="O22" s="3">
         <v>1000</v>
       </c>
       <c r="P22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1707,8 +1768,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1726,28 +1787,31 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-3800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-2600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>44900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-4300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,26 +1913,29 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1896,58 +1966,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>43900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>43900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E41" s="3">
         <v>23200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2331,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E43" s="3">
         <v>147300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>151200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>141400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>151600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>152000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>149900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>155900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>163400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>167600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>159900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>163600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>167000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>173800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>177500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,258 +2437,276 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E45" s="3">
         <v>17100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13500</v>
-      </c>
-      <c r="O45" s="3">
-        <v>12200</v>
       </c>
       <c r="P45" s="3">
         <v>12200</v>
       </c>
       <c r="Q45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="R45" s="3">
         <v>64700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>194300</v>
+      </c>
+      <c r="E46" s="3">
         <v>187600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>182700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>171300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>181700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>181300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>183000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>183100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>199000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>201300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>190800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>198400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>194100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>202800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>262600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8100</v>
+        <v>9200</v>
       </c>
       <c r="E47" s="3">
         <v>8100</v>
       </c>
       <c r="F47" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G47" s="3">
         <v>7400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>17100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>16700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>14200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>22600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>22200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E48" s="3">
         <v>25100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E49" s="3">
         <v>44600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>44800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>48300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>48000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>49800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>49500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>50200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>50800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>52400</v>
-      </c>
-      <c r="M49" s="3">
-        <v>56600</v>
       </c>
       <c r="N49" s="3">
         <v>56600</v>
       </c>
       <c r="O49" s="3">
+        <v>56600</v>
+      </c>
+      <c r="P49" s="3">
         <v>57600</v>
-      </c>
-      <c r="P49" s="3">
-        <v>56900</v>
       </c>
       <c r="Q49" s="3">
         <v>56900</v>
       </c>
       <c r="R49" s="3">
+        <v>56900</v>
+      </c>
+      <c r="S49" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E52" s="3">
         <v>9500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>40400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>282400</v>
+      </c>
+      <c r="E54" s="3">
         <v>274900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>271600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>269600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>279000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>280800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>283200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>264800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>282200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>289200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>285500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>293300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>290100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>307500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>397900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2890,299 +3021,317 @@
         <v>21700</v>
       </c>
       <c r="E57" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F57" s="3">
         <v>25700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>26500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>30000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>28000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>4500</v>
       </c>
       <c r="Q58" s="3">
         <v>4500</v>
       </c>
       <c r="R58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="S58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E59" s="3">
         <v>68500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>65000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>67600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>76400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>85300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>83000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>75700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>79600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>87000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>85500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>90300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>80200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>84300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>95900</v>
+      </c>
+      <c r="E60" s="3">
         <v>92100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>93700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>91500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>106200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>113000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>120300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>109000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>114100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>120000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>115200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>125900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>111900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>116900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>135000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E61" s="3">
         <v>53600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>50500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>41200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>48700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>48400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>45100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>44600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>42100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>34500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>150800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>142100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E62" s="3">
         <v>21900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>26700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>27100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>28000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>27700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>38200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>39000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E66" s="3">
         <v>168400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>169200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>160200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>181900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>187200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>193100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>170900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>182900</v>
       </c>
       <c r="L66" s="3">
         <v>182900</v>
       </c>
       <c r="M66" s="3">
+        <v>182900</v>
+      </c>
+      <c r="N66" s="3">
         <v>181000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>184200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>173500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>189500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>327000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-77800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-79900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-77900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-71400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-83500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-86000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-87600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-85400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-78200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-62100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-54000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-44100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-39800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-83700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E76" s="3">
         <v>106500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>102400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>109400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>97000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>93500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>90100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>93800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>99300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>106400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>104500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>109100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>116600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>118000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>71000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>43900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>800</v>
       </c>
       <c r="I83" s="3">
         <v>800</v>
       </c>
       <c r="J83" s="3">
+        <v>800</v>
+      </c>
+      <c r="K83" s="3">
         <v>2000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E89" s="3">
         <v>6400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-16100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4405,49 +4626,52 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1000</v>
       </c>
       <c r="M91" s="3">
         <v>-1000</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4555,49 +4785,52 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>128000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-128000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>10700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E102" s="3">
         <v>8200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>HIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E8" s="3">
         <v>88700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>94400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>93300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>83800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>95700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>98300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>98700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>101900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>112100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>113900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>119000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>123200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>125400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>116100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E9" s="3">
         <v>60000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>65000</v>
       </c>
       <c r="F9" s="3">
         <v>65000</v>
       </c>
       <c r="G9" s="3">
+        <v>65000</v>
+      </c>
+      <c r="H9" s="3">
         <v>51300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>64100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>67000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>67200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>71000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>68800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>78900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>77600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>85700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>85900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>86800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>78500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E10" s="3">
         <v>28700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>29400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>32500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>36300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>37300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>37600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1043,8 +1062,8 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1065,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>7900</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E17" s="3">
         <v>83900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>91100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>97200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>73700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>92600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>93700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>98100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>105200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>109600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>115700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>119100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>120700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>124800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>126800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>112000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>142700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E18" s="3">
         <v>4800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,29 +1312,30 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1333,66 +1366,72 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E21" s="3">
         <v>5300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-15900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="3">
         <v>1300</v>
@@ -1401,152 +1440,161 @@
         <v>1300</v>
       </c>
       <c r="G22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1500</v>
       </c>
       <c r="K22" s="3">
         <v>1500</v>
       </c>
       <c r="L22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1000</v>
       </c>
       <c r="P22" s="3">
         <v>1000</v>
       </c>
       <c r="Q22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1771,8 +1831,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1790,28 +1850,31 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-3800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>44900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-4300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,29 +1982,32 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1969,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>43900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>43900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E41" s="3">
         <v>33300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>135500</v>
+      </c>
+      <c r="E43" s="3">
         <v>144200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>147300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>151200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>141400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>151600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>152000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>149900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>155900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>163400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>167600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>159900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>163600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>167000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>173800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>177500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,273 +2535,291 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E45" s="3">
         <v>16800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>12200</v>
       </c>
       <c r="Q45" s="3">
         <v>12200</v>
       </c>
       <c r="R45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="S45" s="3">
         <v>64700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>182900</v>
+      </c>
+      <c r="E46" s="3">
         <v>194300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>187600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>182700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>171300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>181700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>181300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>183000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>183100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>199000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>201300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>190800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>198400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>194100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>202800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>262600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E47" s="3">
         <v>9200</v>
-      </c>
-      <c r="E47" s="3">
-        <v>8100</v>
       </c>
       <c r="F47" s="3">
         <v>8100</v>
       </c>
       <c r="G47" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H47" s="3">
         <v>7400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>17100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>16700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>14200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>22600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>22200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E48" s="3">
         <v>23800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E49" s="3">
         <v>45400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>44600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>44800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>48300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>48000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>49800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>49500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>50200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>50800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>52400</v>
-      </c>
-      <c r="N49" s="3">
-        <v>56600</v>
       </c>
       <c r="O49" s="3">
         <v>56600</v>
       </c>
       <c r="P49" s="3">
+        <v>56600</v>
+      </c>
+      <c r="Q49" s="3">
         <v>57600</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>56900</v>
       </c>
       <c r="R49" s="3">
         <v>56900</v>
       </c>
       <c r="S49" s="3">
+        <v>56900</v>
+      </c>
+      <c r="T49" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E52" s="3">
         <v>9800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>40400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E54" s="3">
         <v>282400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>274900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>271600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>269600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>279000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>280800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>283200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>264800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>282200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>289200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>285500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>293300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>290100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>307500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>397900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21700</v>
+        <v>21000</v>
       </c>
       <c r="E57" s="3">
         <v>21700</v>
       </c>
       <c r="F57" s="3">
+        <v>21700</v>
+      </c>
+      <c r="G57" s="3">
         <v>25700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>24600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>26900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>28000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>29800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>4500</v>
       </c>
       <c r="R58" s="3">
         <v>4500</v>
       </c>
       <c r="S58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="T58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E59" s="3">
         <v>71000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>68500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>65000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>67600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>76400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>85300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>83000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>75700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>79600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>87000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>85500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>90300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>80200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>84300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E60" s="3">
         <v>95900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>92100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>93700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>91500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>106200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>113000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>120300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>109000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>114100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>120000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>115200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>125900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>111900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>116900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>135000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E61" s="3">
         <v>54600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>53600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>50500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>41200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>48700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>48400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>45100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>42100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>34500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>150800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>142100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E62" s="3">
         <v>21400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>27100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>28000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>27700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>38200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>39000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>164300</v>
+      </c>
+      <c r="E66" s="3">
         <v>173000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>168400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>169200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>160200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>181900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>187200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>193100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>170900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>182900</v>
       </c>
       <c r="M66" s="3">
         <v>182900</v>
       </c>
       <c r="N66" s="3">
+        <v>182900</v>
+      </c>
+      <c r="O66" s="3">
         <v>181000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>184200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>173500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>189500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>327000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-79500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-77800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-79900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-77900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-71400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-83500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-86000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-87600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-85400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-78200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-62100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-54000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-44100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-39800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-83700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>107700</v>
+      </c>
+      <c r="E76" s="3">
         <v>109400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>106500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>102400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>109400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>97000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>93500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>90100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>93800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>99300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>106400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>104500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>109100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>116600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>118000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>71000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>43900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4234,52 +4432,55 @@
         <v>700</v>
       </c>
       <c r="E83" s="3">
+        <v>700</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>800</v>
       </c>
       <c r="J83" s="3">
         <v>800</v>
       </c>
       <c r="K83" s="3">
+        <v>800</v>
+      </c>
+      <c r="L83" s="3">
         <v>2000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-16100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1000</v>
       </c>
       <c r="N91" s="3">
         <v>-1000</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-1800</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>128000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>14400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-128000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>10700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>10400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>HIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E8" s="3">
         <v>92100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>88700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>94400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>93300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>83800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>95700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>98300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>98700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>101900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>112100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>113900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>119000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>123200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>125400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>116100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E9" s="3">
         <v>59100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>60000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>65000</v>
       </c>
       <c r="G9" s="3">
         <v>65000</v>
       </c>
       <c r="H9" s="3">
+        <v>65000</v>
+      </c>
+      <c r="I9" s="3">
         <v>51300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>64100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>67000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>67200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>71000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>68800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>78900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>77600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>85700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>85900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>86800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>78500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E10" s="3">
         <v>33000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>28700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>29400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>28300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>32500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>36300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>37300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>38600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>37600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1065,8 +1085,8 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1087,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>7900</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E17" s="3">
         <v>85800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>83900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>91100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>97200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>73700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>92600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>93700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>98100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>105200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>109600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>115700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>119100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>120700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>124800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>126800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>112000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>142700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>6300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,32 +1346,33 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1369,72 +1403,78 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>4900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-15900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1300</v>
       </c>
       <c r="F22" s="3">
         <v>1300</v>
@@ -1443,158 +1483,167 @@
         <v>1300</v>
       </c>
       <c r="H22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1500</v>
       </c>
       <c r="L22" s="3">
         <v>1500</v>
       </c>
       <c r="M22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1000</v>
       </c>
       <c r="Q22" s="3">
         <v>1000</v>
       </c>
       <c r="R22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>4400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1834,8 +1895,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1853,28 +1914,31 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-2600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>44900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-4300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,32 +2052,35 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2041,64 +2111,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>43900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>43900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E41" s="3">
         <v>34200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>33300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2516,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>145500</v>
+      </c>
+      <c r="E43" s="3">
         <v>135500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>144200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>147300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>151200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>141400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>151600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>152000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>149900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>155900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>163400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>167600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>159900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>163600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>167000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>173800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>177500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,288 +2634,306 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E45" s="3">
         <v>13100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13500</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>12200</v>
       </c>
       <c r="R45" s="3">
         <v>12200</v>
       </c>
       <c r="S45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="T45" s="3">
         <v>64700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>180200</v>
+      </c>
+      <c r="E46" s="3">
         <v>182900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>194300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>187600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>182700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>171300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>181700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>181300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>183000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>183100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>199000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>201300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>190800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>198400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>194100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>202800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>262600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E47" s="3">
         <v>8800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>9200</v>
-      </c>
-      <c r="F47" s="3">
-        <v>8100</v>
       </c>
       <c r="G47" s="3">
         <v>8100</v>
       </c>
       <c r="H47" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I47" s="3">
         <v>7400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>17100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>16700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>14200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>22600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>22200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E48" s="3">
         <v>22800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>25900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E49" s="3">
         <v>48700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>45400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>44600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>44800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>48300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>48000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>49800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>49500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>50200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>50800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>52400</v>
-      </c>
-      <c r="O49" s="3">
-        <v>56600</v>
       </c>
       <c r="P49" s="3">
         <v>56600</v>
       </c>
       <c r="Q49" s="3">
+        <v>56600</v>
+      </c>
+      <c r="R49" s="3">
         <v>57600</v>
-      </c>
-      <c r="R49" s="3">
-        <v>56900</v>
       </c>
       <c r="S49" s="3">
         <v>56900</v>
       </c>
       <c r="T49" s="3">
+        <v>56900</v>
+      </c>
+      <c r="U49" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E52" s="3">
         <v>8800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>40400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>276200</v>
+      </c>
+      <c r="E54" s="3">
         <v>272000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>282400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>274900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>271600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>269600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>279000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>280800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>283200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>264800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>282200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>289200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>285500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>293300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>290100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>307500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>397900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>400100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3272,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E57" s="3">
         <v>21000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>21700</v>
       </c>
       <c r="F57" s="3">
         <v>21700</v>
       </c>
       <c r="G57" s="3">
+        <v>21700</v>
+      </c>
+      <c r="H57" s="3">
         <v>25700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>26500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>24600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>29300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>26900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>28000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>29800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>4500</v>
       </c>
       <c r="S58" s="3">
         <v>4500</v>
       </c>
       <c r="T58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="U58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E59" s="3">
         <v>63000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>71000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>68500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>65000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>67600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>76400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>85300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>83000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>75700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>79600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>87000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>85500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>90300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>80200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>84300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>100700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E60" s="3">
         <v>85000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>95900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>92100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>93700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>91500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>106200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>113000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>120300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>109000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>114100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>120000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>115200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>125900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>111900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>116900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>135000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E61" s="3">
         <v>48500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>54600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>53600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>50500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>41200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>48700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>48400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>45100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>42100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>34500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>31400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>32400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>150800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>142100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E62" s="3">
         <v>29300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>26200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>28000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>27700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>38200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>39000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>171200</v>
+      </c>
+      <c r="E66" s="3">
         <v>164300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>173000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>168400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>169200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>160200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>181900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>187200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>193100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>170900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>182900</v>
       </c>
       <c r="N66" s="3">
         <v>182900</v>
       </c>
       <c r="O66" s="3">
+        <v>182900</v>
+      </c>
+      <c r="P66" s="3">
         <v>181000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>184200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>173500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>189500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>327000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-82200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-79500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-77800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-79900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-77900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-71400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-83500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-86000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-87600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-85400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-78200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-62100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-44100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-39800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-83700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>105100</v>
+      </c>
+      <c r="E76" s="3">
         <v>107700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>109400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>106500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>102400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>109400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>97000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>93500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>90100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>93800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>99300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>106400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>104500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>109100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>116600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>118000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>71000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>43900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4435,52 +4634,55 @@
         <v>700</v>
       </c>
       <c r="F83" s="3">
+        <v>700</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>800</v>
       </c>
       <c r="K83" s="3">
         <v>800</v>
       </c>
       <c r="L83" s="3">
+        <v>800</v>
+      </c>
+      <c r="M83" s="3">
         <v>2000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E89" s="3">
         <v>9000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-16100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1000</v>
       </c>
       <c r="O91" s="3">
         <v>-1000</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>128000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>14400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-128000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>10700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-6000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>HIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E8" s="3">
         <v>87100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>92100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>88700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>94400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>93300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>83800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>95700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>98300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>98700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>101900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>112100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>113900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>119000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>123200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>125400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>116100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E9" s="3">
         <v>59900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>59100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>60000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>65000</v>
       </c>
       <c r="H9" s="3">
         <v>65000</v>
       </c>
       <c r="I9" s="3">
+        <v>65000</v>
+      </c>
+      <c r="J9" s="3">
         <v>51300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>64100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>67000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>67200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>71000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>68800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>78900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>77600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>85700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>85900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>86800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>78500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E10" s="3">
         <v>27200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>33000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>29400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>28300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>36300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>37300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>38600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>37600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,25 +1085,28 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1110,10 +1130,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>7900</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E17" s="3">
         <v>87200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>85800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>83900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>91100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>97200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>73700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>92600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>93700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>98100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>105200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>109600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>115700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>119100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>120700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>124800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>126800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>112000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>142700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,26 +1390,26 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1406,78 +1440,84 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-15900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1300</v>
       </c>
       <c r="G22" s="3">
         <v>1300</v>
@@ -1486,164 +1526,173 @@
         <v>1300</v>
       </c>
       <c r="I22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1500</v>
       </c>
       <c r="M22" s="3">
         <v>1500</v>
       </c>
       <c r="N22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1000</v>
       </c>
       <c r="R22" s="3">
         <v>1000</v>
       </c>
       <c r="S22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1898,8 +1959,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1917,28 +1978,31 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-3800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-2600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>44900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-4300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,26 +2134,26 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2114,67 +2184,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>43900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>43900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E41" s="3">
         <v>18900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,67 +2609,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>153300</v>
+      </c>
+      <c r="E43" s="3">
         <v>145500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>135500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>144200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>147300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>151200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>141400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>151600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>152000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>149900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>155900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>163400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>167600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>159900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>163600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>167000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>173800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>177500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,303 +2733,321 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E45" s="3">
         <v>15800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13500</v>
-      </c>
-      <c r="R45" s="3">
-        <v>12200</v>
       </c>
       <c r="S45" s="3">
         <v>12200</v>
       </c>
       <c r="T45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="U45" s="3">
         <v>64700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>193600</v>
+      </c>
+      <c r="E46" s="3">
         <v>180200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>182900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>194300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>187600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>182700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>171300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>181700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>181300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>183000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>183100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>199000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>201300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>190800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>198400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>194100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>202800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>262600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E47" s="3">
         <v>9200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>8100</v>
       </c>
       <c r="H47" s="3">
         <v>8100</v>
       </c>
       <c r="I47" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J47" s="3">
         <v>7400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>13400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>17100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>16700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>14200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>22600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>22200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E48" s="3">
         <v>29500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>23800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>25100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>25900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E49" s="3">
         <v>48000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>48700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>45400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>44600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>44800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>48300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>48000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>49800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>49500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>50200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>50800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>52400</v>
-      </c>
-      <c r="P49" s="3">
-        <v>56600</v>
       </c>
       <c r="Q49" s="3">
         <v>56600</v>
       </c>
       <c r="R49" s="3">
+        <v>56600</v>
+      </c>
+      <c r="S49" s="3">
         <v>57600</v>
-      </c>
-      <c r="S49" s="3">
-        <v>56900</v>
       </c>
       <c r="T49" s="3">
         <v>56900</v>
       </c>
       <c r="U49" s="3">
+        <v>56900</v>
+      </c>
+      <c r="V49" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E52" s="3">
         <v>9300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>40400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>288900</v>
+      </c>
+      <c r="E54" s="3">
         <v>276200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>272000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>282400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>274900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>271600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>269600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>279000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>280800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>283200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>264800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>282200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>289200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>285500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>293300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>290100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>307500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>397900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>400100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E57" s="3">
         <v>18800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>21700</v>
       </c>
       <c r="G57" s="3">
         <v>21700</v>
       </c>
       <c r="H57" s="3">
+        <v>21700</v>
+      </c>
+      <c r="I57" s="3">
         <v>25700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>26500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>30000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>26900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>29000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>28000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>29800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2700</v>
-      </c>
-      <c r="S58" s="3">
-        <v>4500</v>
       </c>
       <c r="T58" s="3">
         <v>4500</v>
       </c>
       <c r="U58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="V58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E59" s="3">
         <v>63100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>63000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>71000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>68500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>65000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>67600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>76400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>85300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>83000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>75700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>79600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>87000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>85500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>90300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>80200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>84300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>100700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>116300</v>
+      </c>
+      <c r="E60" s="3">
         <v>84100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>85000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>95900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>92100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>93700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>91500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>106200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>113000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>120300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>109000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>114100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>120000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>115200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>125900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>111900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>116900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>135000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E61" s="3">
         <v>50600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>48500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>54600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>53600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>50500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>41200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>48700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>48400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>45100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>44800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>42100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>34500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>31400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>32400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>150800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>142100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E62" s="3">
         <v>35900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>26700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>26200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>28000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>27700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>38200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>39000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>183200</v>
+      </c>
+      <c r="E66" s="3">
         <v>171200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>164300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>173000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>168400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>169200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>160200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>181900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>187200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>193100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>170900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>182900</v>
       </c>
       <c r="O66" s="3">
         <v>182900</v>
       </c>
       <c r="P66" s="3">
+        <v>182900</v>
+      </c>
+      <c r="Q66" s="3">
         <v>181000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>184200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>173500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>189500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>327000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-82700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-82200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-79500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-77800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-79900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-77900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-71400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-83500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-86000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-87600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-85400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-78200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-62100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-54000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-44100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-39800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-83700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E76" s="3">
         <v>105100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>107700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>109400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>106500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>102400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>109400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>97000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>93500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>90100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>93800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>99300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>106400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>104500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>109100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>116600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>118000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>71000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>43900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,13 +4820,14 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>700</v>
@@ -4637,52 +4836,55 @@
         <v>700</v>
       </c>
       <c r="G83" s="3">
+        <v>700</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>800</v>
       </c>
       <c r="L83" s="3">
         <v>800</v>
       </c>
       <c r="M83" s="3">
+        <v>800</v>
+      </c>
+      <c r="N83" s="3">
         <v>2000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-16100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-1000</v>
       </c>
       <c r="P91" s="3">
         <v>-1000</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1800</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>128000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>3400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-128000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>10700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-6000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>HIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E8" s="3">
         <v>101500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>87100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>92100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>88700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>94400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>93300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>83800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>95700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>98300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>98700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>100700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>101900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>112100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>113900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>119000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>123200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>125400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>116100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E9" s="3">
         <v>70300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>59900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>59100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>60000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>65000</v>
       </c>
       <c r="I9" s="3">
         <v>65000</v>
       </c>
       <c r="J9" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K9" s="3">
         <v>51300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>64100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>67000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>67200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>71000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>68800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>78900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>77600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>85700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>85900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>86800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>78500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E10" s="3">
         <v>31200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>27200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>33000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>28700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>29400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>28300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>36300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>33300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>37300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>38600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>37600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1133,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>7900</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>92300</v>
+      </c>
+      <c r="E17" s="3">
         <v>98600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>87200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>85800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>83900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>91100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>97200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>73700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>92600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>93700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>98100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>105200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>109600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>115700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>119100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>120700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>124800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>126800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>112000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>142700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E18" s="3">
         <v>2900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1393,26 +1427,26 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1443,84 +1477,90 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E21" s="3">
         <v>3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-15900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1300</v>
       </c>
       <c r="H22" s="3">
         <v>1300</v>
@@ -1529,108 +1569,114 @@
         <v>1300</v>
       </c>
       <c r="J22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1500</v>
       </c>
       <c r="N22" s="3">
         <v>1500</v>
       </c>
       <c r="O22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1000</v>
       </c>
       <c r="S22" s="3">
         <v>1000</v>
       </c>
       <c r="T22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1638,61 +1684,64 @@
         <v>1800</v>
       </c>
       <c r="E24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,28 +1997,31 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1981,28 +2042,31 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-3800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-2600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>44900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-4300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2137,26 +2207,26 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2187,70 +2257,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>43900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>43900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E41" s="3">
         <v>21000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>20400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,70 +2702,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>156900</v>
+      </c>
+      <c r="E43" s="3">
         <v>153300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>145500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>135500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>144200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>147300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>151200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>141400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>151600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>152000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>149900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>155900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>163400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>167600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>159900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>163600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>167000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>173800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>177500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,318 +2832,336 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E45" s="3">
         <v>19400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13500</v>
-      </c>
-      <c r="S45" s="3">
-        <v>12200</v>
       </c>
       <c r="T45" s="3">
         <v>12200</v>
       </c>
       <c r="U45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="V45" s="3">
         <v>64700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200500</v>
+      </c>
+      <c r="E46" s="3">
         <v>193600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>180200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>182900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>194300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>187600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>182700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>171300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>181700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>181300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>183000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>183100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>199000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>201300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>190800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>198400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>194100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>202800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>262600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E47" s="3">
         <v>9600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>9200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9200</v>
-      </c>
-      <c r="H47" s="3">
-        <v>8100</v>
       </c>
       <c r="I47" s="3">
         <v>8100</v>
       </c>
       <c r="J47" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K47" s="3">
         <v>7400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>13400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>17100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>16700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>14200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>22600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>22200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E48" s="3">
         <v>28500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>23800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>25100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>25900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E49" s="3">
         <v>48400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>48000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>48700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>45400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>44600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>44800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>48300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>48000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>49800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>49500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>50200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>50800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>52400</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>56600</v>
       </c>
       <c r="R49" s="3">
         <v>56600</v>
       </c>
       <c r="S49" s="3">
+        <v>56600</v>
+      </c>
+      <c r="T49" s="3">
         <v>57600</v>
-      </c>
-      <c r="T49" s="3">
-        <v>56900</v>
       </c>
       <c r="U49" s="3">
         <v>56900</v>
       </c>
       <c r="V49" s="3">
+        <v>56900</v>
+      </c>
+      <c r="W49" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E52" s="3">
         <v>8800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>40400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>294300</v>
+      </c>
+      <c r="E54" s="3">
         <v>288900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>276200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>272000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>282400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>274900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>271600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>269600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>279000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>280800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>283200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>264800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>282200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>289200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>285500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>293300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>290100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>307500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>397900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>400100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,256 +3534,269 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E57" s="3">
         <v>21800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>21000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>21700</v>
       </c>
       <c r="H57" s="3">
         <v>21700</v>
       </c>
       <c r="I57" s="3">
+        <v>21700</v>
+      </c>
+      <c r="J57" s="3">
         <v>25700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>22100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>30000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>26900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>32300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>29000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>28000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>29800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E58" s="3">
         <v>23900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2700</v>
-      </c>
-      <c r="T58" s="3">
-        <v>4500</v>
       </c>
       <c r="U58" s="3">
         <v>4500</v>
       </c>
       <c r="V58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="W58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E59" s="3">
         <v>70600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>63100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>63000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>71000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>68500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>65000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>67600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>76400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>85300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>83000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>75700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>79600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>87000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>85500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>90300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>80200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>84300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>100700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>122800</v>
+      </c>
+      <c r="E60" s="3">
         <v>116300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>84100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>85000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>95900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>92100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>93700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>91500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>106200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>113000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>120300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>109000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>114100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>120000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>115200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>125900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>111900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>116900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>135000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3661,123 +3804,129 @@
         <v>29900</v>
       </c>
       <c r="E61" s="3">
+        <v>29900</v>
+      </c>
+      <c r="F61" s="3">
         <v>50600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>48500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>54600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>53600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>50500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>41200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>48700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>48400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>45100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>44600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>44800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>42100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>37400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>34500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>31400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>32400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>150800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>142100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E62" s="3">
         <v>36400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>35900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>29300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>26700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>27100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>28000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>22200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>27700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>38200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>39000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>187900</v>
+      </c>
+      <c r="E66" s="3">
         <v>183200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>171200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>164300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>173000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>168400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>169200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>160200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>181900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>187200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>193100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>170900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>182900</v>
       </c>
       <c r="P66" s="3">
         <v>182900</v>
       </c>
       <c r="Q66" s="3">
+        <v>182900</v>
+      </c>
+      <c r="R66" s="3">
         <v>181000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>184200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>173500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>189500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>327000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-81500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-82700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-82200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-79500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-77800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-79900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-77900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-71400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-83500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-86000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-87600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-85400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-78200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-62100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-54000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-44100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-39800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-83700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>106400</v>
+      </c>
+      <c r="E76" s="3">
         <v>105700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>105100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>107700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>109400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>106500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>102400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>109400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>97000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>93500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>90100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>93800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>99300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>106400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>104500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>109100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>116600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>118000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>71000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>43900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4830,7 +5029,7 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>700</v>
@@ -4839,52 +5038,55 @@
         <v>700</v>
       </c>
       <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
-      </c>
-      <c r="L83" s="3">
-        <v>800</v>
       </c>
       <c r="M83" s="3">
         <v>800</v>
       </c>
       <c r="N83" s="3">
+        <v>800</v>
+      </c>
+      <c r="O83" s="3">
         <v>2000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E89" s="3">
         <v>3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-16100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q91" s="3">
         <v>-1000</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1800</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>128000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6042,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>14400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-128000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>10700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-6000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E102" s="3">
         <v>2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>HIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,321 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>92200</v>
+      </c>
+      <c r="F8" s="3">
         <v>96600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>101500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>87100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>92100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>88700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>94400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>93300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>83800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>95700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>98300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>98700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>100700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>101900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>112100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>113900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>119000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>123200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>125400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>116100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>59400</v>
+      </c>
+      <c r="F9" s="3">
         <v>64200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>70300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>59900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>59100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>60000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>65000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>65000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>51300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>64100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>67000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>67200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>71000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>68800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>78900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>77600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>85700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>85900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>86800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>78500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F10" s="3">
         <v>32400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>31200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>27200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>33000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>28700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>29400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>28300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>32500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>31600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>31300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>31500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>29700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>33100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>33200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>36300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>33300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>37300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>38600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>37600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1156,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>7900</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1173,8 +1212,14 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>90000</v>
+      </c>
+      <c r="F17" s="3">
         <v>92300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>98600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>87200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>85800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>83900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>91100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>97200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>73700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>92600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>93700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>98100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>105200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>109600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>115700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>119100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>120700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>124800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>126800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>112000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>142700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F18" s="3">
         <v>4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>4800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>10100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-4500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-3600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-5200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>4100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,44 +1480,46 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1480,102 +1547,114 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F21" s="3">
         <v>4900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>4900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>5300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>11500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>5400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-3900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>5700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-15900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1400</v>
       </c>
       <c r="H22" s="3">
         <v>1300</v>
       </c>
       <c r="I22" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J22" s="3">
         <v>1300</v>
       </c>
       <c r="K22" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="L22" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M22" s="3">
         <v>1400</v>
@@ -1584,164 +1663,182 @@
         <v>1500</v>
       </c>
       <c r="O22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P22" s="3">
         <v>1500</v>
       </c>
-      <c r="P22" s="3">
-        <v>1300</v>
-      </c>
       <c r="Q22" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="R22" s="3">
         <v>1300</v>
       </c>
       <c r="S22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U22" s="3">
         <v>1000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>1000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>800</v>
+      </c>
+      <c r="F23" s="3">
         <v>3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>8800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-6000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-4800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-6600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>3400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>4400</v>
       </c>
       <c r="H24" s="3">
         <v>1100</v>
       </c>
       <c r="I24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-3400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>3500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>1300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>12100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-7300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-7100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-7700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-6100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>2000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>12100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-7300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-7100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-7700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-6100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2045,28 +2166,34 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-3800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-2600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>44900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-4300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,44 +2328,50 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2260,73 +2399,85 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>12100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-7300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-7500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-8100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-9900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>43900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>12100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-7300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-7500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-8100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-9900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>43900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2746,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F41" s="3">
         <v>26300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>21000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>18900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>34200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>33300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>23200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>16100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>15900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>17400</v>
-      </c>
-      <c r="M41" s="3">
-        <v>18700</v>
-      </c>
-      <c r="N41" s="3">
-        <v>25700</v>
       </c>
       <c r="O41" s="3">
         <v>18700</v>
       </c>
       <c r="P41" s="3">
+        <v>25700</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>18700</v>
+      </c>
+      <c r="R41" s="3">
         <v>23100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>22600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>17800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>21400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>14900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>16700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>20400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,73 +2884,85 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>152200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>153200</v>
+      </c>
+      <c r="F43" s="3">
         <v>156900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>153300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>145500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>135500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>144200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>147300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>151200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>141400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>151600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>152000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>149900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>155900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>163400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>167600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>159900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>163600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>167000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>173800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>177500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,333 +3026,369 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F45" s="3">
         <v>17300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>19400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>15800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>13100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>16800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>17100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>15400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>14000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>12700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>10600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>7300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>8500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>12500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>11100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>13100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>13500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>12200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>12200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>64700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>190300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>190500</v>
+      </c>
+      <c r="F46" s="3">
         <v>200500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>193600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>180200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>182900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>194300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>187600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>182700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>171300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>181700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>181300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>183000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>183100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>199000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>201300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>190800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>198400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>194100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>202800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>262600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E47" s="3">
         <v>9500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G47" s="3">
         <v>9600</v>
-      </c>
-      <c r="F47" s="3">
-        <v>9200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>8800</v>
       </c>
       <c r="H47" s="3">
         <v>9200</v>
       </c>
       <c r="I47" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K47" s="3">
         <v>8100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>8100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>11100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>10000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>10200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>8900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>9600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>13400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>17100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>16700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>14200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>22600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>22200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F48" s="3">
         <v>27400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>28500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>29500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>22800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>23800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>25100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>25900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>29300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>27000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>27100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>27800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>10800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>11500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>11900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>12100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>12000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>13900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>14900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>15700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>47100</v>
+      </c>
+      <c r="F49" s="3">
         <v>47700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>48400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>48000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>48700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>45400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>44600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>44800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>48300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>48000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>49800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>49500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>50200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>50800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>52400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>56600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>56600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>57600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>56900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>56900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3523,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F52" s="3">
         <v>9200</v>
-      </c>
-      <c r="E52" s="3">
-        <v>8800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>9300</v>
       </c>
       <c r="G52" s="3">
         <v>8800</v>
       </c>
       <c r="H52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J52" s="3">
         <v>9800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>9500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>10100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>13200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>11200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>12600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>12700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>11800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>11300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>10200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>8900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>9600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>10200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>10400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>40400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>283100</v>
+      </c>
+      <c r="F54" s="3">
         <v>294300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>288900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>276200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>272000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>282400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>274900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>271600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>269600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>279000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>280800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>283200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>264800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>282200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>289200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>285500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>293300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>290100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>307500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>397900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>400100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,398 +3794,436 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F57" s="3">
         <v>33900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>21800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>18800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>21000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>21700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>21700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>25700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>22100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>26500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>24600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>33500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>30000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>31500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>29300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>26900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>32300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>29000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>28000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>29800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F58" s="3">
         <v>23000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>23900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>2700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>4500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>4500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>57800</v>
+      </c>
+      <c r="F59" s="3">
         <v>65900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>70600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>63100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>63000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>71000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>68500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>65000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>67600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>76400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>85300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>83000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>75700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>79600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>87000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>85500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>90300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>80200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>84300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>100700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>107400</v>
+      </c>
+      <c r="F60" s="3">
         <v>122800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>116300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>84100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>85000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>95900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>92100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>93700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>91500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>106200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>113000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>120300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>109000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>114100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>120000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>115200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>125900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>111900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>116900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>135000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>29900</v>
+        <v>51600</v>
       </c>
       <c r="E61" s="3">
         <v>29900</v>
       </c>
       <c r="F61" s="3">
+        <v>29900</v>
+      </c>
+      <c r="G61" s="3">
+        <v>29900</v>
+      </c>
+      <c r="H61" s="3">
         <v>50600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>48500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>54600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>53600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>50500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>41200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>48700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>48400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>45100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>44600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>44800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>42100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>37400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>34500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>31400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>32400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>150800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>142100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>42500</v>
+      </c>
+      <c r="F62" s="3">
         <v>34800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>36400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>35900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>29300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>21400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>21900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>24200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>26700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>26200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>25100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>27100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>16700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>23300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>20200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>28000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>22200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>27700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>38200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>39000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>180300</v>
+      </c>
+      <c r="F66" s="3">
         <v>187900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>183200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>171200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>164300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>173000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>168400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>169200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>160200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>181900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>187200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>193100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>170900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>182900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>182900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>181000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>184200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>173500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>189500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>327000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-81500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-82700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-82200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-79500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-77800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-79900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-77900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-71400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-83500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-86000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-87600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-85400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-78200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-69600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-62100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-54000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-44100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-39800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-83700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>102800</v>
+      </c>
+      <c r="F76" s="3">
         <v>106400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>105700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>105100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>107700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>109400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>106500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>102400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>109400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>97000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>93500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>90100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>93800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>99300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>106400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>104500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>109100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>116600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>118000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>71000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>12100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-7300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-7500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-8100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-9900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>43900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5032,61 +5429,67 @@
         <v>600</v>
       </c>
       <c r="F83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H83" s="3">
         <v>700</v>
       </c>
       <c r="I83" s="3">
+        <v>700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>700</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>1200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>1300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>1500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>1800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>1700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>1600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F89" s="3">
         <v>6200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-16700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>9000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>7800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>6400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-10900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>9300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-7000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>8500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-11800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-9900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-6000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>3300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-16100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5939,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1000</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-400</v>
-      </c>
       <c r="U91" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="V91" s="3">
         <v>-400</v>
       </c>
       <c r="W91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>128000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6530,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>3400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-8500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>10800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-9400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>14400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>4300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>2800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-128000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>10700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-500</v>
+        <v>-1300</v>
       </c>
       <c r="E101" s="3">
-        <v>-1600</v>
+        <v>500</v>
       </c>
       <c r="F101" s="3">
         <v>-500</v>
       </c>
       <c r="G101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>4300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>1300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-6000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F102" s="3">
         <v>4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-14700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>10400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>8200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-4700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>7500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-7300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>4100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-3400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>5400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-2700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-5200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>HIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E8" s="3">
         <v>102200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>92200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>96600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>101500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>87100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>92100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>88700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>94400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>93300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>83800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>95700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>98300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>98700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>100700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>101900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>112100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>113900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>119000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>123200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>125400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>116100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E9" s="3">
         <v>70400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>59400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>64200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>70300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>59900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>59100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>60000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>65000</v>
       </c>
       <c r="L9" s="3">
         <v>65000</v>
       </c>
       <c r="M9" s="3">
+        <v>65000</v>
+      </c>
+      <c r="N9" s="3">
         <v>51300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>64100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>67000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>67200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>71000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>68800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>78900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>77600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>85700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>85900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>86800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>78500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E10" s="3">
         <v>31800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>32800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>32400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>27200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>33000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>28700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>31300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>31500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>29700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>33100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>33200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>36300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>33300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>37300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>38600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>37600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1201,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>7900</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>101300</v>
       </c>
       <c r="E17" s="3">
+        <v>101200</v>
+      </c>
+      <c r="F17" s="3">
         <v>90000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>92300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>98600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>87200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>85800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>83900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>91100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>97200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>73700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>92600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>93700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>98100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>105200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>109600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>115700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>119100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>120700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>124800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>126800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>112000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>142700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>4400</v>
       </c>
       <c r="E18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,20 +1515,21 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1503,26 +1537,26 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1553,102 +1587,108 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>4700</v>
       </c>
       <c r="E21" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F21" s="3">
         <v>2700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-15900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1300</v>
       </c>
       <c r="K22" s="3">
         <v>1300</v>
@@ -1657,188 +1697,197 @@
         <v>1300</v>
       </c>
       <c r="M22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1400</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1500</v>
       </c>
       <c r="Q22" s="3">
         <v>1500</v>
       </c>
       <c r="R22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S22" s="3">
         <v>1300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1300</v>
-      </c>
-      <c r="U22" s="3">
-        <v>1000</v>
       </c>
       <c r="V22" s="3">
         <v>1000</v>
       </c>
       <c r="W22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>2700</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1800</v>
       </c>
       <c r="G24" s="3">
         <v>1800</v>
       </c>
       <c r="H24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>1400</v>
       </c>
       <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>1400</v>
       </c>
       <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2172,28 +2233,31 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-3800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-2600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>44900</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,20 +2401,23 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>300</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2355,26 +2425,26 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2405,79 +2475,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>1400</v>
       </c>
       <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>43900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>1400</v>
       </c>
       <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>43900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E41" s="3">
         <v>23900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>26300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>34200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>25700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>22600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>16700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>20400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,79 +2980,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E43" s="3">
         <v>152200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>153200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>156900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>153300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>145500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>135500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>144200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>147300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>151200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>141400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>151600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>152000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>149900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>155900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>163400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>167600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>159900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>163600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>167000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>173800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>177500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>174100</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,363 +3128,381 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E45" s="3">
         <v>14200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>13100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>13500</v>
-      </c>
-      <c r="V45" s="3">
-        <v>12200</v>
       </c>
       <c r="W45" s="3">
         <v>12200</v>
       </c>
       <c r="X45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="Y45" s="3">
         <v>64700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>196200</v>
+      </c>
+      <c r="E46" s="3">
         <v>190300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>190500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>193600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>180200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>182900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>194300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>187600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>182700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>171300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>181700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>181300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>183000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>183100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>199000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>201300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>190800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>198400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>194100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>202800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>262600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>266500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E47" s="3">
         <v>9100</v>
-      </c>
-      <c r="E47" s="3">
-        <v>9500</v>
       </c>
       <c r="F47" s="3">
         <v>9500</v>
       </c>
       <c r="G47" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H47" s="3">
         <v>9600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9200</v>
-      </c>
-      <c r="K47" s="3">
-        <v>8100</v>
       </c>
       <c r="L47" s="3">
         <v>8100</v>
       </c>
       <c r="M47" s="3">
+        <v>8100</v>
+      </c>
+      <c r="N47" s="3">
         <v>7400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>17100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>16700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>14200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>22600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>22200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E48" s="3">
         <v>27800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>14900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E49" s="3">
         <v>46400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>47100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>47700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>48400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>48000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>48700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>45400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>44600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>44800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>48300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>48000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>49800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>49500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>50200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>50800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>52400</v>
-      </c>
-      <c r="T49" s="3">
-        <v>56600</v>
       </c>
       <c r="U49" s="3">
         <v>56600</v>
       </c>
       <c r="V49" s="3">
+        <v>56600</v>
+      </c>
+      <c r="W49" s="3">
         <v>57600</v>
-      </c>
-      <c r="W49" s="3">
-        <v>56900</v>
       </c>
       <c r="X49" s="3">
         <v>56900</v>
       </c>
       <c r="Y49" s="3">
+        <v>56900</v>
+      </c>
+      <c r="Z49" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E52" s="3">
         <v>8400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>40400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>284800</v>
+      </c>
+      <c r="E54" s="3">
         <v>282000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>283100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>294300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>288900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>276200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>272000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>282400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>274900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>271600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>269600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>279000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>280800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>283200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>264800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>282200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>289200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>285500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>293300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>290100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>307500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>397900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>400100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3805,291 +3936,303 @@
         <v>26300</v>
       </c>
       <c r="E57" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F57" s="3">
         <v>23600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>21800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>21700</v>
       </c>
       <c r="K57" s="3">
         <v>21700</v>
       </c>
       <c r="L57" s="3">
+        <v>21700</v>
+      </c>
+      <c r="M57" s="3">
         <v>25700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>26500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>24600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>30000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>31500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>29300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>26900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>32300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>29000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>28000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>29800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E58" s="3">
         <v>9500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>26100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>23000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>23900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2700</v>
-      </c>
-      <c r="W58" s="3">
-        <v>4500</v>
       </c>
       <c r="X58" s="3">
         <v>4500</v>
       </c>
       <c r="Y58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Z58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E59" s="3">
         <v>56600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>57800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>65900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>70600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>63100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>63000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>71000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>68500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>67600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>76400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>85300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>83000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>75700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>79600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>87000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>85500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>90300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>80200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>84300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>100700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>119500</v>
+      </c>
+      <c r="E60" s="3">
         <v>92400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>107400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>122800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>116300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>84100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>85000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>95900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>92100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>93700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>91500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>106200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>113000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>120300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>109000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>114100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>120000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>115200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>125900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>111900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>116900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>135000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>139500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E61" s="3">
         <v>51600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>29900</v>
       </c>
       <c r="F61" s="3">
         <v>29900</v>
@@ -4098,132 +4241,138 @@
         <v>29900</v>
       </c>
       <c r="H61" s="3">
+        <v>29900</v>
+      </c>
+      <c r="I61" s="3">
         <v>50600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>48500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>54600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>53600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>50500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>41200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>48700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>48400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>45100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>44600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>44800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>42100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>37400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>34500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>31400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>32400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>150800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>142100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E62" s="3">
         <v>37500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>42500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>34800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>36400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>29300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>26700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>26200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>27100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>23300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>20200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>28000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>22200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>27700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>38200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>39000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>184900</v>
+      </c>
+      <c r="E66" s="3">
         <v>182000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>180300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>187900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>183200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>171200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>164300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>173000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>168400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>169200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>160200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>181900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>187200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>193100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>170900</v>
-      </c>
-      <c r="R66" s="3">
-        <v>182900</v>
       </c>
       <c r="S66" s="3">
         <v>182900</v>
       </c>
       <c r="T66" s="3">
+        <v>182900</v>
+      </c>
+      <c r="U66" s="3">
         <v>181000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>184200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>173500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>189500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>327000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-84400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-83800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-81500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-82700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-82200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-79500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-77800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-79900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-77900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-71400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-83500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-86000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-87600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-85400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-78200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-69600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-62100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-54000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-44100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-39800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-83700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-81300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E76" s="3">
         <v>100000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>102800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>106400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>105700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>105100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>107700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>109400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>106500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>102400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>109400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>97000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>93500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>90100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>93800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>99300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>106400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>104500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>109100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>116600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>118000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>71000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>74400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>1400</v>
       </c>
       <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>43900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5435,7 +5634,7 @@
         <v>600</v>
       </c>
       <c r="H83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>700</v>
@@ -5444,52 +5643,55 @@
         <v>700</v>
       </c>
       <c r="K83" s="3">
+        <v>700</v>
+      </c>
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>900</v>
-      </c>
-      <c r="O83" s="3">
-        <v>800</v>
       </c>
       <c r="P83" s="3">
         <v>800</v>
       </c>
       <c r="Q83" s="3">
+        <v>800</v>
+      </c>
+      <c r="R83" s="3">
         <v>2000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-11800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-16100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-1000</v>
       </c>
       <c r="T91" s="3">
         <v>-1000</v>
       </c>
       <c r="U91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>128000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6779,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>5300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>14400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-128000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>10700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-6000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>4400</v>
       </c>
     </row>
